--- a/src/ACAT/course_outcomes/FA24/COMP-103_FA24_course_outcomes.xlsx
+++ b/src/ACAT/course_outcomes/FA24/COMP-103_FA24_course_outcomes.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7aefdb78623ca621/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\siric\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A5A087FD-4131-4925-B7B1-A196884668A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8E9FCFB-D036-41C0-AD05-A7079C9F2725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{9F43DA75-7D7C-4A6C-99C1-D995B7F6C369}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{9F43DA75-7D7C-4A6C-99C1-D995B7F6C369}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Understand and implement advanced programming concepts building upon the foundational knowledge acquired in Programming I.</t>
   </si>
@@ -55,13 +55,16 @@
   </si>
   <si>
     <t>Understand global issues and cultural diversity in computing.</t>
+  </si>
+  <si>
+    <t>Course outcome</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -81,6 +84,14 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -104,11 +115,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -128,9 +140,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -168,7 +180,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -274,7 +286,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -416,7 +428,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -424,49 +436,54 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A34DC33C-8D25-4508-9ADB-14033FF48086}">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="102.73046875" customWidth="1"/>
+    <col min="1" max="1" width="102.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="39" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="1" t="s">
+    <row r="3" spans="1:1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="27.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="1" t="s">
+    <row r="4" spans="1:1" ht="27.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="1" t="s">
+    <row r="5" spans="1:1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="25.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="1" t="s">
+    <row r="6" spans="1:1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="1" t="s">
+    <row r="7" spans="1:1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="22.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="1" t="s">
+    <row r="8" spans="1:1" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
     </row>
